--- a/biology/Médecine/Cérat_de_Galien/Cérat_de_Galien.xlsx
+++ b/biology/Médecine/Cérat_de_Galien/Cérat_de_Galien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9rat_de_Galien</t>
+          <t>Cérat_de_Galien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cérat de Galien est un cérat (excipient complexe utilisé dans différentes préparations officinales dermatologiques).
 La formule originale contient de la cire d'abeille et de l'huile d'amande douce (formant une pommade appelée « cérat »), du borate de sodium ainsi que de l'eau de rose. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9rat_de_Galien</t>
+          <t>Cérat_de_Galien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'invention de cette crème est attribuée au médecin du IIe siècle de notre ère, Galien, né à Pergame en Asie Mineure. Elle est appelée Ceratum Galeni en pharmacie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9rat_de_Galien</t>
+          <t>Cérat_de_Galien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Formule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, le cérat de Galien est présenté au Formulaire national français avec la composition suivante[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, le cérat de Galien est présenté au Formulaire national français avec la composition suivante :
 Cire d'abeille blanche : 13,00 g
 Huile d'amande raffinée : 53,50 g
 Borax : 0,50 g
 Eau aromatisée de rose : 33,00 g
-Le cérat cosmétique ou cold cream[2], quant à lui, comprend, outre les constituants du cérat de Galien, du palmitate de cétyle (le blanc de baleine de la formule originelle a été remplacé depuis l'interdiction de la chasse à la baleine) et de la teinture de benjoin.
+Le cérat cosmétique ou cold cream, quant à lui, comprend, outre les constituants du cérat de Galien, du palmitate de cétyle (le blanc de baleine de la formule originelle a été remplacé depuis l'interdiction de la chasse à la baleine) et de la teinture de benjoin.
 </t>
         </is>
       </c>
